--- a/Samples/LowCodeSamples/Design/Resources/FourPartForm.xlsx
+++ b/Samples/LowCodeSamples/Design/Resources/FourPartForm.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\【Codeer.LowCode.Blazor業務】\【マニュアル用_Git】\マニュアルの編集\Samples\LowCodeSamples\Design\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86BF748-784C-4BD3-84C7-A683AF745F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E29913-BA87-4468-9B22-ADAC6155F673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50376" yWindow="1560" windowWidth="17508" windowHeight="19476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44724" yWindow="-1236" windowWidth="17604" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="First" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">First!$A$1:$AA$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -476,13 +476,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -828,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.59765625" defaultRowHeight="18"/>
   <cols>
@@ -894,13 +894,13 @@
     <row r="8" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="9" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="10" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="16" t="s">
         <v>13</v>
       </c>
@@ -910,47 +910,47 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13" t="s">
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13" t="s">
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="14" t="s">
         <v>26</v>
       </c>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="27" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="28" spans="1:27" s="3" customFormat="1">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
       <c r="G28" s="16" t="s">
         <v>13</v>
       </c>
@@ -1196,47 +1196,47 @@
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
       <c r="M28" s="16"/>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13" t="s">
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13" t="s">
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
     </row>
     <row r="29" spans="1:27" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
       <c r="N29" s="14" t="s">
         <v>26</v>
       </c>
@@ -1337,13 +1337,13 @@
     </row>
     <row r="37" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="38" spans="1:27" s="3" customFormat="1">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="16" t="s">
         <v>13</v>
       </c>
@@ -1353,47 +1353,47 @@
       <c r="K38" s="16"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="13" t="s">
+      <c r="N38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13" t="s">
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13" t="s">
+      <c r="S38" s="15"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="15"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
     </row>
     <row r="39" spans="1:27" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
       <c r="N39" s="14" t="s">
         <v>26</v>
       </c>
@@ -1426,6 +1426,22 @@
     <row r="48" spans="1:27" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="W38:AA38"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="R28:V28"/>
+    <mergeCell ref="W28:AA28"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="N15:AA15"/>
+    <mergeCell ref="N21:AA21"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="N39:Q39"/>
@@ -1442,22 +1458,6 @@
     <mergeCell ref="N29:Q29"/>
     <mergeCell ref="G11:M11"/>
     <mergeCell ref="G10:M10"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="W38:AA38"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="N15:AA15"/>
-    <mergeCell ref="N21:AA21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Samples/LowCodeSamples/Design/Resources/FourPartForm.xlsx
+++ b/Samples/LowCodeSamples/Design/Resources/FourPartForm.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\【Codeer.LowCode.Blazor業務】\【マニュアル用_Git】\マニュアルの編集\Samples\LowCodeSamples\Design\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E29913-BA87-4468-9B22-ADAC6155F673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D3CB8A-C499-4577-A5D5-A108EFDE460D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44724" yWindow="-1236" windowWidth="17604" windowHeight="22620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41316" yWindow="-2172" windowWidth="18768" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AA$50</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>#LoopRow($四連伝票明細リスト.Rows, x, 6)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>受領日：</t>
     <rPh sb="0" eb="3">
       <t>ジュリョウビ</t>
@@ -252,29 +248,6 @@
     <rPh sb="5" eb="7">
       <t>バショ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>$x.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>品目コード</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="36"/>
-        <color theme="1"/>
-        <rFont val="Libre Barcode 39"/>
-      </rPr>
-      <t>.Value</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -298,6 +271,14 @@
       </rPr>
       <t>.Value</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#QR($x.品目コード.Value, 3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#LoopRow($四連伝票明細リスト.Rows, x, 7)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -476,20 +457,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA48"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +858,7 @@
     </row>
     <row r="6" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>15</v>
@@ -882,7 +869,7 @@
     </row>
     <row r="7" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>14</v>
@@ -894,63 +881,63 @@
     <row r="8" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="9" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
     <row r="10" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="15" t="s">
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15" t="s">
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
       <c r="N11" s="14" t="s">
         <v>26</v>
       </c>
@@ -1025,397 +1012,419 @@
     </row>
     <row r="14" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="3" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N15" s="17" t="s">
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="W15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
     </row>
     <row r="16" spans="1:27" s="3" customFormat="1" ht="25.05" customHeight="1">
       <c r="Q16" s="4"/>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:27" s="3" customFormat="1" ht="25.05" customHeight="1">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="1:27" s="3" customFormat="1" ht="25.05" customHeight="1"/>
+    <row r="18" spans="1:27" s="3" customFormat="1" ht="25.05" customHeight="1">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+    </row>
+    <row r="19" spans="1:27" s="3" customFormat="1" ht="25.05" customHeight="1">
+      <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="K17" s="10" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="K19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="U17" s="10" t="s">
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10" t="s">
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1" thickBot="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+    </row>
+    <row r="21" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1"/>
+    <row r="22" spans="1:27" s="3" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-    </row>
-    <row r="18" spans="1:27" s="3" customFormat="1" ht="25.05" customHeight="1"/>
-    <row r="19" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1" thickBot="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-    </row>
-    <row r="20" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1"/>
-    <row r="21" spans="1:27" s="3" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="B21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-    </row>
-    <row r="22" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="X22" s="2"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
     </row>
     <row r="23" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B23" s="3" t="s">
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="O24" s="3" t="s">
+    <row r="25" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="O25" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="3" t="s">
+    <row r="26" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="O26" s="3" t="s">
+    <row r="27" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="O27" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="28" spans="1:27" s="3" customFormat="1">
-      <c r="B28" s="15" t="s">
+    <row r="28" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="29" spans="1:27" s="3" customFormat="1">
+      <c r="B29" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-    </row>
-    <row r="29" spans="1:27" s="3" customFormat="1">
-      <c r="A29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+    </row>
+    <row r="30" spans="1:27" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14" t="s">
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14" t="s">
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14" t="s">
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-    </row>
-    <row r="30" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="31" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1" thickBot="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="12"/>
-    </row>
-    <row r="32" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1"/>
-    <row r="33" spans="1:27" s="3" customFormat="1" ht="34.950000000000003" customHeight="1">
-      <c r="B33" s="2" t="s">
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+    </row>
+    <row r="31" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="32" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1" thickBot="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+    </row>
+    <row r="33" spans="1:27" s="3" customFormat="1" ht="10.050000000000001" customHeight="1"/>
+    <row r="34" spans="1:27" s="3" customFormat="1" ht="34.950000000000003" customHeight="1">
+      <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="9"/>
-      <c r="X33" s="2"/>
-    </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="35" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="O34" s="9"/>
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="36" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q35" s="10" t="s">
+      <c r="E36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10" t="s">
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="Q37" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-    </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1">
-      <c r="Q36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-    </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
-    <row r="38" spans="1:27" s="3" customFormat="1">
-      <c r="B38" s="15" t="s">
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+    </row>
+    <row r="38" spans="1:27" s="3" customFormat="1" ht="19.95" customHeight="1"/>
+    <row r="39" spans="1:27" s="3" customFormat="1">
+      <c r="B39" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-      <c r="R38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="V38" s="15"/>
-      <c r="W38" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="X38" s="15"/>
-      <c r="Y38" s="15"/>
-      <c r="Z38" s="15"/>
-      <c r="AA38" s="15"/>
-    </row>
-    <row r="39" spans="1:27" s="3" customFormat="1">
-      <c r="A39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>19</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
+      <c r="AA39" s="13"/>
+    </row>
+    <row r="40" spans="1:27" s="3" customFormat="1">
+      <c r="A40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="14" t="s">
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14" t="s">
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14" t="s">
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-    </row>
-    <row r="40" spans="1:27" s="3" customFormat="1"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+    </row>
     <row r="41" spans="1:27" s="3" customFormat="1"/>
     <row r="42" spans="1:27" s="3" customFormat="1"/>
     <row r="43" spans="1:27" s="3" customFormat="1"/>
@@ -1424,40 +1433,40 @@
     <row r="46" spans="1:27" s="3" customFormat="1"/>
     <row r="47" spans="1:27" s="3" customFormat="1"/>
     <row r="48" spans="1:27" s="3" customFormat="1"/>
+    <row r="49" s="3" customFormat="1"/>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="W38:AA38"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="W39:AA39"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="R28:V28"/>
-    <mergeCell ref="W28:AA28"/>
-    <mergeCell ref="R29:V29"/>
-    <mergeCell ref="W29:AA29"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="N15:AA15"/>
-    <mergeCell ref="N21:AA21"/>
+  <mergeCells count="31">
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="N40:Q40"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="G39:M39"/>
     <mergeCell ref="N39:Q39"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:M28"/>
-    <mergeCell ref="N28:Q28"/>
     <mergeCell ref="B29:F29"/>
     <mergeCell ref="G29:M29"/>
     <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="G30:M30"/>
+    <mergeCell ref="N30:Q30"/>
     <mergeCell ref="G11:M11"/>
     <mergeCell ref="G10:M10"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="W39:AA39"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AA40"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="R29:V29"/>
+    <mergeCell ref="W29:AA29"/>
+    <mergeCell ref="R30:V30"/>
+    <mergeCell ref="W30:AA30"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="N22:AA22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
